--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -795,10 +795,10 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -807,10 +807,10 @@
         <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>19</v>
@@ -828,16 +828,16 @@
         <v>126</v>
       </c>
       <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
         <v>10</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>12</v>
@@ -846,19 +846,19 @@
         <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
         <v>23</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>126</v>
@@ -873,25 +873,25 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX2" t="n">
         <v>4</v>
       </c>
-      <c r="AX2" t="n">
-        <v>8</v>
-      </c>
       <c r="AY2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>15</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>21</v>
-      </c>
       <c r="BA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB2" t="n">
         <v>41</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>81</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>351</v>
       </c>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -951,10 +951,10 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.53</v>
@@ -963,19 +963,19 @@
         <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -984,16 +984,16 @@
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -1011,7 +1011,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -1038,39 +1038,39 @@
         <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>10</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
         <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>351</v>
+      </c>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
         <v>2.2</v>
@@ -1230,25 +1230,25 @@
       <c r="AV4" t="n">
         <v>51</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>17</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>23</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>51</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>67</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>151</v>
       </c>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
@@ -1313,10 +1313,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1328,7 +1328,7 @@
         <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1409,25 +1409,25 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
         <v>7</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>34</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>41</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>126</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>151</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
         <v>451</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1465,16 +1465,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1489,16 +1489,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1507,22 +1507,22 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1543,7 +1543,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1552,13 +1552,13 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
@@ -1579,34 +1579,34 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX6" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>19</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>26</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
       <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
         <v>81</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>151</v>
@@ -1647,19 +1647,19 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.75</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
         <v>2.5</v>
@@ -1671,31 +1671,31 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1713,25 +1713,25 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
@@ -1743,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
@@ -1752,7 +1752,7 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
@@ -1761,34 +1761,34 @@
         <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX7" t="n">
         <v>4</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>10</v>
       </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA7" t="n">
         <v>34</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1844,7 +1844,7 @@
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1955,25 +1955,25 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX8" t="n">
         <v>4.5</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>12</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>21</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BA8" t="n">
         <v>41</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>51</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>126</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>451</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2011,16 +2011,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
@@ -2035,22 +2035,22 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
         <v>1.8</v>
@@ -2062,7 +2062,7 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2128,7 +2128,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2137,25 +2137,25 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX9" t="n">
         <v>5</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>19</v>
       </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA9" t="n">
         <v>51</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
         <v>81</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BC9" t="n">
         <v>201</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2310,7 +2310,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2319,25 +2319,25 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
         <v>6</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AY10" t="n">
         <v>23</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AZ10" t="n">
         <v>34</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BA10" t="n">
         <v>81</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BB10" t="n">
         <v>101</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BC10" t="n">
         <v>301</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>126</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2378,16 +2378,16 @@
         <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
         <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
         <v>4.5</v>
@@ -2399,16 +2399,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
         <v>9</v>
@@ -2438,10 +2438,10 @@
         <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2450,13 +2450,13 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>21</v>
@@ -2474,13 +2474,13 @@
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>9.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>34</v>
@@ -2501,25 +2501,25 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX11" t="n">
         <v>6</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
         <v>21</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AZ11" t="n">
         <v>29</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="BA11" t="n">
         <v>67</v>
       </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
       <c r="BB11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC11" t="n">
         <v>201</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="K12" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L12" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="n">
         <v>1.38</v>
@@ -2599,108 +2599,108 @@
         <v>2.57</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB12" t="n">
         <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG12" t="n">
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV12" t="n">
         <v>65</v>
       </c>
-      <c r="AW12" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>25</v>
+        <v>6.6</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ12" t="n">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="BA12" t="n">
         <v>175</v>
       </c>
       <c r="BB12" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC12" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>450</v>
+      </c>
       <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2735,31 +2735,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>4.05</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>2.77</v>
@@ -2777,76 +2777,76 @@
         <v>2.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB13" t="n">
         <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
         <v>40</v>
       </c>
-      <c r="AM13" t="n">
-        <v>50</v>
-      </c>
       <c r="AN13" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AR13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="n">
         <v>300</v>
@@ -2855,30 +2855,30 @@
         <v>2.37</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AV13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5.7</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>5.1</v>
       </c>
       <c r="AY13" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB13" t="n">
         <v>150</v>
       </c>
-      <c r="BA13" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC13" t="inlineStr"/>
+      <c r="BC13" t="n">
+        <v>400</v>
+      </c>
       <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2913,22 +2913,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
         <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2961,22 +2961,22 @@
         <v>2.3</v>
       </c>
       <c r="W14" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
@@ -2994,40 +2994,40 @@
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL14" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="AO14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
         <v>2.95</v>
@@ -3038,25 +3038,25 @@
       <c r="AV14" t="n">
         <v>45</v>
       </c>
-      <c r="AW14" t="n">
-        <v>4.7</v>
-      </c>
+      <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>13.5</v>
+        <v>4.9</v>
       </c>
       <c r="AY14" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BB14" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC14" t="n">
         <v>200</v>
       </c>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
@@ -765,10 +765,10 @@
         <v>2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -783,10 +783,10 @@
         <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -795,10 +795,10 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -807,16 +807,16 @@
         <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -828,7 +828,7 @@
         <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>10</v>
@@ -858,13 +858,13 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -939,7 +939,7 @@
         <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
         <v>9</v>
@@ -948,7 +948,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -1008,22 +1008,22 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
         <v>67</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1035,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1141,16 +1141,16 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>9</v>
@@ -1162,10 +1162,10 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>23</v>
@@ -1189,16 +1189,16 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
@@ -1207,13 +1207,13 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1222,7 +1222,7 @@
         <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1235,7 +1235,7 @@
         <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1430,7 +1430,7 @@
         <v>451</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1471,7 +1471,7 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1489,16 +1489,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1525,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1543,7 +1543,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1579,7 +1579,7 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1591,7 +1591,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX6" t="n">
         <v>5.5</v>
@@ -1832,13 +1832,13 @@
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
@@ -1847,10 +1847,10 @@
         <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1859,25 +1859,25 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1892,7 +1892,7 @@
         <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
@@ -1901,25 +1901,25 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
@@ -1934,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1943,19 +1943,19 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX8" t="n">
         <v>4.5</v>
@@ -2381,7 +2381,7 @@
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>2.4</v>
@@ -2390,13 +2390,13 @@
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2405,10 +2405,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2417,16 +2417,16 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2441,13 +2441,13 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2468,7 +2468,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2483,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2510,7 +2510,7 @@
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
@@ -2519,7 +2519,7 @@
         <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L12" t="n">
         <v>5.1</v>
@@ -2581,16 +2581,16 @@
         <v>10.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="S12" t="n">
         <v>1.38</v>
@@ -2605,43 +2605,43 @@
         <v>1.85</v>
       </c>
       <c r="W12" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2659,13 +2659,13 @@
         <v>3.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>55</v>
@@ -2674,23 +2674,23 @@
         <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU12" t="n">
         <v>7.4</v>
       </c>
       <c r="AV12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA12" t="n">
         <v>175</v>
@@ -2753,10 +2753,10 @@
         <v>3.95</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.34</v>
@@ -2913,13 +2913,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
         <v>2.9</v>
@@ -2928,13 +2928,13 @@
         <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
@@ -2958,10 +2958,10 @@
         <v>1.55</v>
       </c>
       <c r="V14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W14" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>14</v>
@@ -2979,13 +2979,13 @@
         <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF14" t="n">
         <v>40</v>
@@ -2994,10 +2994,10 @@
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>10</v>
@@ -3009,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN14" t="n">
         <v>4.55</v>
@@ -3033,20 +3033,20 @@
         <v>2.95</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV14" t="n">
         <v>45</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA14" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -948,7 +948,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -981,16 +981,16 @@
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -999,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1020,7 +1020,7 @@
         <v>151</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -1035,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1050,11 +1050,11 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1135,10 +1135,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1313,10 +1313,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1513,7 +1513,7 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1558,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
@@ -1603,7 +1603,7 @@
         <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
         <v>81</v>
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1683,10 +1683,10 @@
         <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1716,7 +1716,7 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1740,10 +1740,10 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
@@ -1764,7 +1764,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1779,13 +1779,13 @@
         <v>4</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ7" t="n">
         <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB7" t="n">
         <v>51</v>
@@ -1841,28 +1841,28 @@
         <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1871,16 +1871,16 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
         <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1889,13 +1889,13 @@
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1910,13 +1910,13 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1931,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1961,7 +1961,7 @@
         <v>4.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -2029,10 +2029,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -2041,10 +2041,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2137,7 +2137,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>2.2</v>
@@ -2581,10 +2581,10 @@
         <v>10.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q12" t="n">
         <v>1.78</v>
@@ -2593,43 +2593,43 @@
         <v>1.82</v>
       </c>
       <c r="S12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T12" t="n">
         <v>2.57</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X12" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
         <v>75</v>
@@ -2638,10 +2638,10 @@
         <v>600</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2656,31 +2656,31 @@
         <v>50</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>26</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
         <v>2.55</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -783,16 +783,16 @@
         <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
         <v>19</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -831,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>12</v>
@@ -846,13 +846,13 @@
         <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>67</v>
@@ -861,10 +861,10 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -879,13 +879,13 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1.67</v>
@@ -942,55 +942,55 @@
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -999,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1008,22 +1008,22 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1035,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1044,26 +1044,26 @@
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
@@ -1283,58 +1283,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.38</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1346,64 +1346,64 @@
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
         <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1421,16 +1421,16 @@
         <v>41</v>
       </c>
       <c r="BA5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
         <v>126</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1471,7 +1471,7 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1513,7 +1513,7 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1558,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
@@ -1603,7 +1603,7 @@
         <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
         <v>81</v>
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1698,16 +1698,16 @@
         <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
@@ -1716,7 +1716,7 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1728,10 +1728,10 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
@@ -1743,16 +1743,16 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
@@ -1779,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="AY7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ7" t="n">
         <v>19</v>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1853,49 +1853,49 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1907,16 +1907,16 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
@@ -1934,19 +1934,19 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
@@ -1958,10 +1958,10 @@
         <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1973,7 +1973,7 @@
         <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2014,58 +2014,58 @@
         <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -2074,46 +2074,46 @@
         <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2125,13 +2125,13 @@
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2146,16 +2146,16 @@
         <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2193,22 +2193,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2277,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2337,7 +2337,7 @@
         <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2378,37 +2378,37 @@
         <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2417,16 +2417,16 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2441,22 +2441,22 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>21</v>
@@ -2468,7 +2468,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2477,13 +2477,13 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2510,7 +2510,7 @@
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
@@ -2519,7 +2519,7 @@
         <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2557,58 +2557,54 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>2.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10.5</v>
-      </c>
+        <v>5.2</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="V12" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -2617,55 +2613,55 @@
         <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
         <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
         <v>60</v>
@@ -2674,32 +2670,32 @@
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
         <v>6.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ12" t="n">
         <v>35</v>
       </c>
       <c r="BA12" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>
@@ -2756,7 +2752,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>8.9</v>
+        <v>8.85</v>
       </c>
       <c r="O13" t="n">
         <v>1.34</v>
@@ -2916,13 +2912,13 @@
         <v>2.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K14" t="n">
         <v>2.15</v>
@@ -2934,7 +2930,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
@@ -2961,7 +2957,7 @@
         <v>2.32</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X14" t="n">
         <v>14</v>
@@ -2979,10 +2975,10 @@
         <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE14" t="n">
         <v>11.25</v>
@@ -2994,10 +2990,10 @@
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
         <v>10</v>
@@ -3015,13 +3011,13 @@
         <v>4.55</v>
       </c>
       <c r="AO14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR14" t="n">
         <v>65</v>
@@ -3043,10 +3039,10 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -765,22 +765,22 @@
         <v>2.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.75</v>
@@ -885,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
@@ -930,37 +930,37 @@
         <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
         <v>9.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -969,19 +969,19 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>7.5</v>
@@ -990,13 +990,13 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1005,25 +1005,25 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1038,10 +1038,10 @@
         <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
         <v>3.75</v>
@@ -1050,26 +1050,26 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
         <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1135,10 +1135,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1283,22 +1283,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1313,22 +1313,22 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.5</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1337,7 +1337,7 @@
         <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>12</v>
@@ -1379,13 +1379,13 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1397,10 +1397,10 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>10</v>
@@ -1430,7 +1430,7 @@
         <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1591,7 +1591,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX6" t="n">
         <v>5.5</v>
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1671,10 +1671,10 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
@@ -1689,10 +1689,10 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>13</v>
@@ -1704,7 +1704,7 @@
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA7" t="n">
         <v>34</v>
@@ -1716,28 +1716,28 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1746,7 +1746,7 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO7" t="n">
         <v>23</v>
@@ -1755,19 +1755,19 @@
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1776,7 +1776,7 @@
         <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY7" t="n">
         <v>9</v>
@@ -1788,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="BB7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1889,7 +1889,7 @@
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -2158,7 +2158,7 @@
         <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2193,28 +2193,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2277,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
@@ -2405,25 +2405,25 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
         <v>9</v>
@@ -2438,13 +2438,13 @@
         <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2453,7 +2453,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
         <v>12</v>
@@ -2471,16 +2471,16 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
         <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>34</v>
@@ -2489,10 +2489,10 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2513,10 +2513,10 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
         <v>201</v>
@@ -2560,78 +2560,82 @@
         <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.2</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.81</v>
+      </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T12" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U12" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="X12" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z12" t="n">
         <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
         <v>90</v>
       </c>
       <c r="AG12" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH12" t="n">
         <v>12.5</v>
@@ -2649,53 +2653,53 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR12" t="n">
         <v>55</v>
       </c>
-      <c r="AN12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>60</v>
-      </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AV12" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AY12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>30</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>35</v>
-      </c>
       <c r="BA12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC12" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>
@@ -2748,12 +2752,8 @@
       <c r="L13" t="n">
         <v>3.95</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8.85</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
         <v>1.34</v>
       </c>
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2936,7 +2936,7 @@
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q14" t="n">
         <v>1.7</v>
@@ -2948,28 +2948,28 @@
         <v>1.35</v>
       </c>
       <c r="T14" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
         <v>2.32</v>
       </c>
       <c r="W14" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB14" t="n">
         <v>22</v>
@@ -2978,7 +2978,7 @@
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>11.25</v>
@@ -2990,43 +2990,43 @@
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>25</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS14" t="n">
         <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU14" t="n">
         <v>6.3</v>
@@ -3036,16 +3036,16 @@
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB14" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,22 +771,22 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -795,10 +795,10 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -828,7 +828,7 @@
         <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>9.5</v>
@@ -843,10 +843,10 @@
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -861,10 +861,10 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -879,10 +879,10 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
@@ -891,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -927,10 +927,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -981,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>7.5</v>
@@ -990,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1005,7 +1005,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -1014,7 +1014,7 @@
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
@@ -1035,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1057,19 +1057,19 @@
         <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1135,16 +1135,16 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1165,13 +1165,13 @@
         <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1186,19 +1186,19 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
@@ -1210,10 +1210,10 @@
         <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1222,7 +1222,7 @@
         <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1235,7 +1235,7 @@
         <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1283,19 +1283,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
@@ -1325,10 +1325,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1379,13 +1379,13 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1430,7 +1430,7 @@
         <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1471,7 +1471,7 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1483,10 +1483,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1495,25 +1495,25 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1528,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1546,19 +1546,19 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
@@ -1582,10 +1582,10 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1603,13 +1603,13 @@
         <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
         <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1677,10 +1677,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1883,7 +1883,7 @@
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
@@ -1910,7 +1910,7 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -2011,19 +2011,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -2047,16 +2047,16 @@
         <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2071,13 +2071,13 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
@@ -2089,10 +2089,10 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2116,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2128,13 +2128,13 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2152,7 +2152,7 @@
         <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
         <v>251</v>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
@@ -2214,7 +2214,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2274,7 +2274,7 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2295,19 +2295,19 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2405,10 +2405,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2423,16 +2423,16 @@
         <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2441,10 +2441,10 @@
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2459,13 +2459,13 @@
         <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>34</v>
@@ -2477,13 +2477,13 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2504,10 +2504,10 @@
         <v>501</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2735,30 +2735,30 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
         <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q13" t="n">
         <v>1.98</v>
@@ -2773,40 +2773,40 @@
         <v>2.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y13" t="n">
         <v>8.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>8.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG13" t="n">
         <v>600</v>
@@ -2815,13 +2815,13 @@
         <v>9.25</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
         <v>32</v>
@@ -2830,50 +2830,50 @@
         <v>40</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR13" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BA13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BD13" t="inlineStr"/>
     </row>
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
         <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2948,7 +2948,7 @@
         <v>1.35</v>
       </c>
       <c r="T14" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U14" t="n">
         <v>1.53</v>
@@ -2957,22 +2957,22 @@
         <v>2.32</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
@@ -2990,10 +2990,10 @@
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>9.5</v>
@@ -3002,10 +3002,10 @@
         <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN14" t="n">
         <v>4.7</v>
@@ -3014,10 +3014,10 @@
         <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR14" t="n">
         <v>70</v>
@@ -3026,7 +3026,7 @@
         <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU14" t="n">
         <v>6.3</v>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AY14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA14" t="n">
         <v>60</v>
       </c>
       <c r="BB14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BC14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -750,16 +750,16 @@
         <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>2.2</v>
@@ -777,22 +777,22 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.53</v>
       </c>
-      <c r="R2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
         <v>17</v>
@@ -807,16 +807,16 @@
         <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -828,43 +828,43 @@
         <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN2" t="n">
         <v>6.5</v>
       </c>
       <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
         <v>23</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -882,7 +882,7 @@
         <v>8.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
@@ -891,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -933,10 +933,10 @@
         <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K3" t="n">
         <v>2.88</v>
@@ -945,10 +945,10 @@
         <v>9.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -963,25 +963,25 @@
         <v>2.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>7.5</v>
@@ -990,10 +990,10 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -1002,10 +1002,10 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -1023,16 +1023,16 @@
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -1044,7 +1044,7 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1057,19 +1057,19 @@
         <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.4</v>
@@ -1325,10 +1325,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1379,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
@@ -1465,16 +1465,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1483,10 +1483,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1677,10 +1677,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1877,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1928,10 +1928,10 @@
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -2035,16 +2035,16 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2158,7 +2158,7 @@
         <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2199,10 +2199,10 @@
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -2244,10 +2244,10 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>15</v>
@@ -2286,7 +2286,7 @@
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2334,7 +2334,7 @@
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
         <v>251</v>
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2405,10 +2405,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2417,16 +2417,16 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2435,7 +2435,7 @@
         <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
@@ -2447,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2456,7 +2456,7 @@
         <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>23</v>
@@ -2468,7 +2468,7 @@
         <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
@@ -2495,7 +2495,7 @@
         <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2507,10 +2507,10 @@
         <v>6.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
@@ -2519,7 +2519,7 @@
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2735,25 +2735,29 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
         <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="L13" t="n">
         <v>3.8</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
@@ -2767,104 +2771,104 @@
         <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X13" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y13" t="n">
         <v>8.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
         <v>65</v>
       </c>
       <c r="AG13" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN13" t="n">
         <v>4.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AQ13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AY13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>90</v>
@@ -2873,7 +2877,7 @@
         <v>120</v>
       </c>
       <c r="BC13" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD13" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -951,16 +951,16 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.22</v>
@@ -969,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
@@ -981,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>7.5</v>
@@ -990,52 +990,52 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE3" t="n">
         <v>26</v>
       </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
       </c>
       <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
         <v>67</v>
       </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1129,10 +1129,10 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
@@ -1153,19 +1153,19 @@
         <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>23</v>
@@ -1186,34 +1186,34 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
       </c>
       <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
         <v>34</v>
       </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1235,16 +1235,16 @@
         <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC4" t="n">
         <v>151</v>
@@ -1591,7 +1591,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX6" t="n">
         <v>5.5</v>
@@ -1612,7 +1612,7 @@
         <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1671,10 +1671,10 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
@@ -1758,7 +1758,7 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1877,19 +1877,19 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1910,7 +1910,7 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1928,10 +1928,10 @@
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -2041,10 +2041,10 @@
         <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2375,58 +2375,58 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>4.75</v>
       </c>
       <c r="J11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2438,28 +2438,28 @@
         <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2477,10 +2477,10 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>29</v>
@@ -2489,13 +2489,13 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2510,7 +2510,7 @@
         <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
@@ -2519,7 +2519,7 @@
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2913,34 +2913,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
         <v>1.7</v>
@@ -2949,40 +2949,40 @@
         <v>2.05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V14" t="n">
         <v>2.32</v>
       </c>
       <c r="W14" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE14" t="n">
         <v>11.25</v>
@@ -2994,25 +2994,25 @@
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO14" t="n">
         <v>13</v>
@@ -3021,16 +3021,16 @@
         <v>18</v>
       </c>
       <c r="AQ14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU14" t="n">
         <v>6.3</v>
@@ -3040,22 +3040,22 @@
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>60</v>
       </c>
       <c r="BB14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,22 +771,22 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -795,34 +795,34 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
         <v>26</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>126</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
         <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -864,10 +864,10 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -876,16 +876,16 @@
         <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
@@ -951,16 +951,16 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.22</v>
@@ -1105,28 +1105,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1135,10 +1135,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1147,19 +1147,19 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>17</v>
@@ -1168,37 +1168,37 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1207,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1219,35 +1219,35 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1283,22 +1283,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1307,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.63</v>
@@ -1340,16 +1340,16 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1364,10 +1364,10 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1379,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
@@ -1591,7 +1591,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX6" t="n">
         <v>5.5</v>
@@ -1612,7 +1612,7 @@
         <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1671,10 +1671,10 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
@@ -1889,7 +1889,7 @@
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -2041,10 +2041,10 @@
         <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2375,28 +2375,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2405,10 +2405,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2417,16 +2417,16 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2438,13 +2438,13 @@
         <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2453,7 +2453,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
@@ -2462,7 +2462,7 @@
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>51</v>
@@ -2474,7 +2474,7 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
         <v>8.5</v>
@@ -2489,13 +2489,13 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2510,16 +2510,16 @@
         <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2913,22 +2913,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="H14" t="n">
         <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="K14" t="n">
         <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2949,34 +2949,34 @@
         <v>2.05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T14" t="n">
         <v>2.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
         <v>2.32</v>
       </c>
       <c r="W14" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>7.9</v>
@@ -2985,7 +2985,7 @@
         <v>6.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>40</v>
@@ -2997,62 +2997,62 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
         <v>16.5</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
         <v>2.92</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV14" t="n">
         <v>45</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AY14" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BB14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC14" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,10 +771,10 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.53</v>
@@ -795,22 +795,22 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
+        <v>17</v>
+      </c>
+      <c r="X2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15</v>
       </c>
-      <c r="X2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>126</v>
@@ -831,43 +831,43 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -876,22 +876,22 @@
         <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -1283,28 +1283,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1331,19 +1331,19 @@
         <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1352,10 +1352,10 @@
         <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>101</v>
@@ -1364,13 +1364,13 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
@@ -1379,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
@@ -1424,7 +1424,7 @@
         <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>501</v>
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1513,19 +1513,19 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
@@ -1537,7 +1537,7 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1546,10 +1546,10 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1567,13 +1567,13 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1591,16 +1591,16 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX6" t="n">
         <v>5.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
         <v>67</v>
@@ -1612,7 +1612,7 @@
         <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1829,16 +1829,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1871,10 +1871,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
         <v>10</v>
@@ -1889,10 +1889,10 @@
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1934,13 +1934,13 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -2011,19 +2011,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -2047,16 +2047,16 @@
         <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2071,13 +2071,13 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
@@ -2089,10 +2089,10 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2116,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2128,13 +2128,13 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2152,10 +2152,10 @@
         <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2375,28 +2375,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2405,10 +2405,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2417,16 +2417,16 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2438,13 +2438,13 @@
         <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2453,7 +2453,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
@@ -2462,7 +2462,7 @@
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>51</v>
@@ -2474,7 +2474,7 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
         <v>8.5</v>
@@ -2483,19 +2483,19 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2510,16 +2510,16 @@
         <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2913,22 +2913,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="J14" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2949,34 +2949,34 @@
         <v>2.05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
         <v>2.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V14" t="n">
         <v>2.32</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
         <v>7.9</v>
@@ -2985,7 +2985,7 @@
         <v>6.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF14" t="n">
         <v>40</v>
@@ -2994,34 +2994,34 @@
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
         <v>26</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR14" t="n">
         <v>65</v>
@@ -3033,23 +3033,23 @@
         <v>2.92</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV14" t="n">
         <v>45</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ14" t="n">
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB14" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,16 +777,16 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -795,10 +795,10 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -837,19 +837,19 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -861,10 +861,10 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -879,19 +879,19 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -951,16 +951,16 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.22</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1135,10 +1135,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1153,13 +1153,13 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
         <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>17</v>
@@ -1180,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1232,13 +1232,13 @@
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>67</v>
@@ -1247,7 +1247,7 @@
         <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1283,16 +1283,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1325,10 +1325,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>4.75</v>
@@ -1340,7 +1340,7 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1364,16 +1364,16 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1382,13 +1382,13 @@
         <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1403,22 +1403,22 @@
         <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>151</v>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.6</v>
@@ -1483,10 +1483,10 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1495,10 +1495,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1516,7 +1516,7 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1531,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1540,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1558,10 +1558,10 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
@@ -1591,10 +1591,10 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1612,7 +1612,7 @@
         <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1650,25 +1650,25 @@
         <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
         <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
         <v>2.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1677,16 +1677,16 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1710,25 +1710,25 @@
         <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>8.5</v>
@@ -1758,13 +1758,13 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="BB7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1829,16 +1829,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1847,10 +1847,10 @@
         <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1859,16 +1859,16 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1.67</v>
@@ -1877,7 +1877,7 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1946,7 +1946,7 @@
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
@@ -2035,16 +2035,16 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2193,16 +2193,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -2244,10 +2244,10 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>15</v>
@@ -2286,7 +2286,7 @@
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2319,7 +2319,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX10" t="n">
         <v>6</v>
@@ -2334,7 +2334,7 @@
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
         <v>251</v>
@@ -2375,28 +2375,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
         <v>4.75</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2405,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2441,10 +2441,10 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2456,10 +2456,10 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2468,7 +2468,7 @@
         <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
@@ -2477,16 +2477,16 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>126</v>
@@ -2504,10 +2504,10 @@
         <v>501</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2916,25 +2916,25 @@
         <v>2.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
@@ -2949,43 +2949,43 @@
         <v>2.05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T14" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
         <v>1.55</v>
       </c>
       <c r="V14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W14" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF14" t="n">
         <v>40</v>
@@ -2994,10 +2994,10 @@
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>10</v>
@@ -3006,10 +3006,10 @@
         <v>35</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN14" t="n">
         <v>4.55</v>
@@ -3018,41 +3018,41 @@
         <v>12.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ14" t="n">
         <v>50</v>
       </c>
       <c r="AR14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV14" t="n">
         <v>45</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AY14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC14" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -927,115 +927,115 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
         <v>26</v>
       </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>34</v>
-      </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1044,32 +1044,32 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
         <v>251</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>351</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1114,31 +1114,31 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1147,16 +1147,16 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1168,22 +1168,22 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
@@ -1210,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1219,13 +1219,13 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1235,13 +1235,13 @@
         <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-10.xlsx
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1147,37 +1147,37 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1186,34 +1186,34 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1232,19 +1232,19 @@
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC4" t="n">
         <v>151</v>
